--- a/JTSMS.xlsx
+++ b/JTSMS.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1099969\OneDrive - Jabil\Desktop\Development_Project\Web\GitHub\JTSMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF43299C-69E6-49D5-9209-C82B29F13AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C769310-3FA4-438D-BBFE-C2640748CA73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DatabaseTable" sheetId="1" r:id="rId1"/>
     <sheet name="Pages" sheetId="3" r:id="rId2"/>
-    <sheet name="Function" sheetId="2" r:id="rId3"/>
+    <sheet name="WatchdogConfig Page" sheetId="4" r:id="rId3"/>
+    <sheet name="Function" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="120">
   <si>
     <t>ticketId</t>
   </si>
@@ -366,6 +367,36 @@
   </si>
   <si>
     <t>isDMZ</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Tester Name</t>
+  </si>
+  <si>
+    <t>Tester PC Name</t>
+  </si>
+  <si>
+    <t>Process Step</t>
+  </si>
+  <si>
+    <t>Process RouteStep</t>
+  </si>
+  <si>
+    <t>Platform</t>
+  </si>
+  <si>
+    <t>Estimated Test Time</t>
+  </si>
+  <si>
+    <t>Enable Notification(On Test Station)</t>
+  </si>
+  <si>
+    <t>Assembly Number</t>
+  </si>
+  <si>
+    <t>Assembly Revision</t>
   </si>
 </sst>
 </file>
@@ -521,7 +552,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -539,6 +570,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -821,7 +853,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:T59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
@@ -1670,8 +1702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B54D99C-AB77-48B1-90F1-F2D1AF4920E5}">
   <dimension ref="B3:Q21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25:K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2050,6 +2082,66 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2EF34FF-B833-4FF0-BF1F-F9DACB0F9D04}">
+  <dimension ref="B3:K3"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B3" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6091898B-187E-4EBA-A7A0-8892F3E0AD79}">
   <dimension ref="B3"/>
   <sheetViews>

--- a/JTSMS.xlsx
+++ b/JTSMS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1099969\OneDrive - Jabil\Desktop\Development_Project\Web\GitHub\JTSMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C769310-3FA4-438D-BBFE-C2640748CA73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98CD191-1FA3-45AB-8901-7F20733594E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DatabaseTable" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="135">
   <si>
     <t>ticketId</t>
   </si>
@@ -397,13 +397,58 @@
   </si>
   <si>
     <t>Assembly Revision</t>
+  </si>
+  <si>
+    <t>add firmware information config &amp; table.</t>
+  </si>
+  <si>
+    <t>edit and resubmit after rejected.</t>
+  </si>
+  <si>
+    <t>validate assmbly number after user key in.</t>
+  </si>
+  <si>
+    <t>Add PCN/ECO/ECN # and change detail.</t>
+  </si>
+  <si>
+    <t>Approve level on Delete function</t>
+  </si>
+  <si>
+    <t>Activity log</t>
+  </si>
+  <si>
+    <t>Actual Completed Date</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Deviation Close - Email reminder 14 before expiery date</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>Update status of NEW if the Deviation or ECN is applying</t>
+  </si>
+  <si>
+    <t>Deviation Close - Approval Flow</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,6 +465,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -445,7 +498,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -548,11 +601,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -571,6 +635,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1702,8 +1774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B54D99C-AB77-48B1-90F1-F2D1AF4920E5}">
   <dimension ref="B3:Q21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25:K25"/>
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2085,8 +2157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2EF34FF-B833-4FF0-BF1F-F9DACB0F9D04}">
   <dimension ref="B3:K3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2143,23 +2215,159 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6091898B-187E-4EBA-A7A0-8892F3E0AD79}">
-  <dimension ref="B3"/>
+  <dimension ref="A2:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="17"/>
+    <col min="2" max="2" width="7.36328125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="49.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="20.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B2" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B3" s="18">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>62</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B4" s="18">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B5" s="18">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="20">
+        <v>44719</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B6" s="18">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B7" s="18">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B8" s="18">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="20">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B9" s="18">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="20">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B10" s="18">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B11" s="18">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C12" s="21" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/JTSMS.xlsx
+++ b/JTSMS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1099969\OneDrive - Jabil\Desktop\Development_Project\Web\GitHub\JTSMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98CD191-1FA3-45AB-8901-7F20733594E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65225697-AAF2-4419-8CD3-F69A29DF3139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DatabaseTable" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="149">
   <si>
     <t>ticketId</t>
   </si>
@@ -429,9 +429,6 @@
     <t>No.</t>
   </si>
   <si>
-    <t>Deviation Close - Email reminder 14 before expiery date</t>
-  </si>
-  <si>
     <t>Done</t>
   </si>
   <si>
@@ -442,13 +439,62 @@
   </si>
   <si>
     <t>Deviation Close - Approval Flow</t>
+  </si>
+  <si>
+    <t>TestScript By Family or Assembly Model</t>
+  </si>
+  <si>
+    <t>Attach Image for evidence</t>
+  </si>
+  <si>
+    <t>add column to store config hashstring</t>
+  </si>
+  <si>
+    <t>Commitment Completed Date</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Deviation Close - Email reminder   before expiry date</t>
+  </si>
+  <si>
+    <t>To trigger users of specific WC:
+- 21, 14 day before expity date: 1 email each day
+- 7 day until user close the deviation request</t>
+  </si>
+  <si>
+    <t>Allow requestor to revise the rejected request and resubmit</t>
+  </si>
+  <si>
+    <t>one page to show the activity log of filtering Assy Number</t>
+  </si>
+  <si>
+    <t>Folder Tree for  (original and encrypted) Script Attachment</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> request will be test lead to approve after submiter request to close the deviation request
+- current (NEW / PCN / ECN / ECO) request that impplemting deviation will be re-active
+- deviation request will be no longer available for usage</t>
+  </si>
+  <si>
+    <t>API to provide the database connection string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Config the server name in the </t>
+  </si>
+  <si>
+    <t>Delete function - Approval Flow</t>
+  </si>
+  <si>
+    <t>Need Test lead to approve once user raise the delete request</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -477,6 +523,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -498,7 +551,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -601,22 +654,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -642,7 +684,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2215,10 +2272,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6091898B-187E-4EBA-A7A0-8892F3E0AD79}">
-  <dimension ref="A2:F12"/>
+  <dimension ref="A2:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2226,12 +2283,14 @@
     <col min="1" max="1" width="8.7265625" style="17"/>
     <col min="2" max="2" width="7.36328125" style="17" customWidth="1"/>
     <col min="3" max="3" width="49.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.453125" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="73.6328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" customWidth="1"/>
+    <col min="6" max="6" width="17.453125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2" s="19" t="s">
         <v>129</v>
       </c>
@@ -2239,55 +2298,69 @@
         <v>127</v>
       </c>
       <c r="D2" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="E2" s="19" t="s">
-        <v>132</v>
-      </c>
       <c r="F2" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="H2" s="21" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" s="18">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E3" s="1"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22" t="s">
+        <v>130</v>
+      </c>
       <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="2:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B4" s="18">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D4" s="1"/>
+      <c r="C4" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>140</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" s="18">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="20">
+      <c r="C5" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="20">
         <v>44719</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B6" s="18">
         <v>4</v>
       </c>
@@ -2297,49 +2370,59 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" s="18">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="18">
         <v>6</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="20">
+      <c r="D8" s="22"/>
+      <c r="E8" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="20">
         <v>44712</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9" s="18">
         <v>7</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="20">
+      <c r="D9" s="22"/>
+      <c r="E9" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="20">
         <v>44712</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" s="18">
         <v>8</v>
       </c>
@@ -2348,23 +2431,123 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B11" s="18">
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C12" s="21" t="s">
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="2:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B12" s="18">
+        <v>10</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B13" s="18">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B14" s="18">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>134</v>
       </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B15" s="18">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B16" s="18">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="18">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="18">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JTSMS.xlsx
+++ b/JTSMS.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1099969\OneDrive - Jabil\Desktop\Development_Project\Web\GitHub\JTSMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1099969\Desktop\Development\GitHub\JTSMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65225697-AAF2-4419-8CD3-F69A29DF3139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0362BBE0-CA54-48C9-9297-797366E34C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="806" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="DatabaseTable" sheetId="1" r:id="rId1"/>
-    <sheet name="Pages" sheetId="3" r:id="rId2"/>
-    <sheet name="WatchdogConfig Page" sheetId="4" r:id="rId3"/>
-    <sheet name="Function" sheetId="2" r:id="rId4"/>
+    <sheet name="DatabaseTable Old Version" sheetId="1" r:id="rId1"/>
+    <sheet name="DatabaseTable" sheetId="6" r:id="rId2"/>
+    <sheet name="Pages" sheetId="3" r:id="rId3"/>
+    <sheet name="WatchdogConfig Page" sheetId="4" r:id="rId4"/>
+    <sheet name="Function" sheetId="2" r:id="rId5"/>
+    <sheet name="Registration Page" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="188">
   <si>
     <t>ticketId</t>
   </si>
@@ -223,9 +225,6 @@
   </si>
   <si>
     <t>file_hash</t>
-  </si>
-  <si>
-    <t>Get Test Script Id</t>
   </si>
   <si>
     <t>assy No</t>
@@ -481,20 +480,140 @@
     <t>API to provide the database connection string</t>
   </si>
   <si>
-    <t xml:space="preserve">Config the server name in the </t>
-  </si>
-  <si>
     <t>Delete function - Approval Flow</t>
   </si>
   <si>
     <t>Need Test lead to approve once user raise the delete request</t>
+  </si>
+  <si>
+    <t>Add Config File</t>
+  </si>
+  <si>
+    <t>Button Copy test script ID to clipboard.</t>
+  </si>
+  <si>
+    <t>add firmware information config &amp; table</t>
+  </si>
+  <si>
+    <t>Report SN using system</t>
+  </si>
+  <si>
+    <t>report SN using un-verified test script</t>
+  </si>
+  <si>
+    <t>report testers using watchdog</t>
+  </si>
+  <si>
+    <t>report testers which are not using watch dog</t>
+  </si>
+  <si>
+    <t>Deviation Close - Email Notification for the list of auto close</t>
+  </si>
+  <si>
+    <t>Image store in tree folder</t>
+  </si>
+  <si>
+    <t>script files will be stored in separate Assebmly Number (HCM_SOLAREDGE\FVT\AS3014-D24-3)</t>
+  </si>
+  <si>
+    <t>After script Id is copied to clipboard, the text will show 'COPIED'</t>
+  </si>
+  <si>
+    <t>return the connection string in API for easier maintenance in future</t>
+  </si>
+  <si>
+    <t>Drop</t>
+  </si>
+  <si>
+    <t>New Test Script Registration</t>
+  </si>
+  <si>
+    <t>Station</t>
+  </si>
+  <si>
+    <t>RouteStep</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>is used for Multiple Assy#</t>
+  </si>
+  <si>
+    <t>isCommon?</t>
+  </si>
+  <si>
+    <t>Created By</t>
+  </si>
+  <si>
+    <t>Creation Date</t>
+  </si>
+  <si>
+    <t>Status of Script ID</t>
+  </si>
+  <si>
+    <t>Script Name</t>
+  </si>
+  <si>
+    <t>Script Revision</t>
+  </si>
+  <si>
+    <t>Script File Name</t>
+  </si>
+  <si>
+    <t>Encrypted File Name</t>
+  </si>
+  <si>
+    <t>File Hash</t>
+  </si>
+  <si>
+    <t>Change Detail</t>
+  </si>
+  <si>
+    <t>User input to register the script ID</t>
+  </si>
+  <si>
+    <t>Auto generated</t>
+  </si>
+  <si>
+    <t>User Input to get approval for test script</t>
+  </si>
+  <si>
+    <t>Can register multiple assy # under single script ID</t>
+  </si>
+  <si>
+    <t>createdEmail</t>
+  </si>
+  <si>
+    <t>updatedName</t>
+  </si>
+  <si>
+    <t>updatedEmail</t>
+  </si>
+  <si>
+    <t>platformId</t>
+  </si>
+  <si>
+    <t>typeId</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>deviationClosedDate</t>
+  </si>
+  <si>
+    <t>isReady</t>
+  </si>
+  <si>
+    <t>number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -518,20 +637,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF92D050"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -547,6 +659,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,7 +794,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -680,32 +816,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF6699"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -982,8 +1159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:T59"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1704,57 +1881,57 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="C53" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="F53" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="H53" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H53" s="2" t="s">
+      <c r="I53" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K53" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="I53" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="K53" s="2" t="s">
+      <c r="L53" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="L53" s="2" t="s">
+      <c r="M53" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="M53" s="2" t="s">
+      <c r="N53" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="N53" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="O53" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.35">
@@ -1777,33 +1954,33 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F58" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G58" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="H58" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>8</v>
@@ -1828,11 +2005,239 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A77C8594-E0BC-438D-A1AA-2C377D953E6A}">
+  <dimension ref="A3:AB17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.81640625" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.26953125" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.90625" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.08984375" style="17" customWidth="1"/>
+    <col min="9" max="9" width="9.1796875" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.08984375" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.90625" style="17" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.6328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.7265625" style="17" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.36328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q4" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="R4" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="K10" s="34"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A17" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="I17" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="J17" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="L17" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="M17" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="N17" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="O17" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="P17" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q17" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="R17" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="S17" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="T17" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="U17" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="V17" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="W17" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="X17"/>
+      <c r="Z17" s="17"/>
+      <c r="AB17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B54D99C-AB77-48B1-90F1-F2D1AF4920E5}">
   <dimension ref="B3:Q21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1842,10 +2247,10 @@
   <sheetData>
     <row r="3" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" t="s">
         <v>84</v>
-      </c>
-      <c r="H3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.35">
@@ -1869,28 +2274,28 @@
       <c r="B6" s="8"/>
       <c r="C6" s="9"/>
       <c r="D6" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>71</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>72</v>
       </c>
       <c r="F6" s="10"/>
       <c r="H6" s="8"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="K6" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="K6" s="9" t="s">
-        <v>66</v>
-      </c>
       <c r="L6" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="M6" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="M6" s="9" t="s">
-        <v>64</v>
-      </c>
       <c r="N6" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
@@ -1900,10 +2305,10 @@
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F7" s="10"/>
       <c r="H7" s="8"/>
@@ -1921,18 +2326,18 @@
       <c r="B8" s="8"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F8" s="10"/>
       <c r="H8" s="8"/>
       <c r="I8" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
@@ -1946,10 +2351,10 @@
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F9" s="10"/>
       <c r="H9" s="8"/>
@@ -1967,10 +2372,10 @@
       <c r="B10" s="8"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F10" s="10"/>
       <c r="H10" s="8"/>
@@ -1988,36 +2393,36 @@
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>70</v>
       </c>
       <c r="F11" s="10"/>
       <c r="H11" s="8"/>
       <c r="I11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="K11" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="N11" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="K11" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="M11" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="N11" s="9" t="s">
+      <c r="O11" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="O11" s="9" t="s">
-        <v>68</v>
-      </c>
       <c r="P11" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q11" s="10"/>
     </row>
@@ -2025,36 +2430,36 @@
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F12" s="10"/>
       <c r="H12" s="8"/>
       <c r="I12" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="K12" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="L12" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="L12" s="9" t="s">
+      <c r="M12" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="M12" s="9" t="s">
-        <v>80</v>
-      </c>
       <c r="N12" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="O12" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="O12" s="9" t="s">
-        <v>68</v>
-      </c>
       <c r="P12" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="10"/>
     </row>
@@ -2062,10 +2467,10 @@
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F13" s="10"/>
       <c r="H13" s="8"/>
@@ -2083,10 +2488,10 @@
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
       <c r="D14" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F14" s="10"/>
       <c r="H14" s="8"/>
@@ -2104,10 +2509,10 @@
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F15" s="10"/>
       <c r="H15" s="8"/>
@@ -2125,10 +2530,10 @@
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F16" s="10"/>
       <c r="H16" s="8"/>
@@ -2162,13 +2567,13 @@
     <row r="18" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B18" s="8"/>
       <c r="C18" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>83</v>
-      </c>
       <c r="E18" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F18" s="10"/>
       <c r="H18" s="12"/>
@@ -2193,7 +2598,7 @@
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
       <c r="D20" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="10"/>
@@ -2210,12 +2615,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2EF34FF-B833-4FF0-BF1F-F9DACB0F9D04}">
   <dimension ref="B3:K3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2234,34 +2639,34 @@
   <sheetData>
     <row r="3" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B3" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="D3" s="17" t="s">
+      <c r="F3" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="G3" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="G3" s="17" t="s">
+      <c r="H3" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="I3" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="J3" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="K3" s="17" t="s">
         <v>118</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2270,248 +2675,258 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6091898B-187E-4EBA-A7A0-8892F3E0AD79}">
-  <dimension ref="A2:H18"/>
+  <dimension ref="A2:H25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="17"/>
+    <col min="1" max="1" width="3.81640625" style="17" customWidth="1"/>
     <col min="2" max="2" width="7.36328125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="49.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="73.6328125" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" customWidth="1"/>
-    <col min="6" max="6" width="17.453125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="71.6328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.36328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.54296875" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B2" s="19" t="s">
+    <row r="2" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="B2" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B3" s="18">
+        <v>1</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B3" s="18">
-        <v>1</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F3" s="4"/>
+      <c r="G3" s="21">
+        <v>44727</v>
+      </c>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B4" s="18">
         <v>2</v>
       </c>
-      <c r="C4" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="C4" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" s="18">
         <v>3</v>
       </c>
-      <c r="C5" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="20">
+      <c r="C5" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="21">
         <v>44719</v>
       </c>
-      <c r="H5" s="1"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B6" s="18">
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C6" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="2:8" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="18">
         <v>5</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="C7" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="18">
         <v>6</v>
       </c>
-      <c r="C8" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="20">
+      <c r="C8" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="21">
         <v>44712</v>
       </c>
-      <c r="H8" s="1"/>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9" s="18">
         <v>7</v>
       </c>
-      <c r="C9" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="20">
+      <c r="C9" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="21">
         <v>44712</v>
       </c>
-      <c r="H9" s="1"/>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" s="18">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="1"/>
+      <c r="C10" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B11" s="18">
         <v>9</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="C11" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="2:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B12" s="18">
         <v>10</v>
       </c>
-      <c r="C12" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C12" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B13" s="18">
         <v>11</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="C13" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="21">
+        <v>44728</v>
+      </c>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B14" s="18">
         <v>12</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="C14" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B15" s="18">
         <v>13</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="C15" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B16" s="18">
         <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="1"/>
@@ -2524,14 +2939,18 @@
         <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E17" s="1"/>
+        <v>158</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="G17" s="29">
+        <v>44746</v>
+      </c>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
@@ -2539,17 +2958,256 @@
         <v>16</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E18" s="1"/>
+        <v>146</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
+    <row r="19" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="18">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="18">
+        <v>18</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="29">
+        <v>44729</v>
+      </c>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="18">
+        <v>19</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="18">
+        <v>20</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="18">
+        <v>21</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="18">
+        <v>22</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="18">
+        <v>23</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="E1:E3 E5:E1048576">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FAD64A3-63F1-40B3-90EB-5A42BF3D1EC5}">
+  <dimension ref="B4:V17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R28" sqref="R28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="11.08984375" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.26953125" style="30" customWidth="1"/>
+    <col min="10" max="10" width="10.08984375" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.81640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.6328125" style="31" customWidth="1"/>
+    <col min="14" max="14" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.6328125" customWidth="1"/>
+    <col min="20" max="20" width="8.54296875" customWidth="1"/>
+    <col min="21" max="21" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" ht="63.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="I6" s="32"/>
+      <c r="J6" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="M6" s="33"/>
+      <c r="N6" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="O6" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="P6" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="H7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>175</v>
+      </c>
+      <c r="K16" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="O16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="15:15" x14ac:dyDescent="0.35">
+      <c r="O17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
